--- a/artfynd/A 11002-2022.xlsx
+++ b/artfynd/A 11002-2022.xlsx
@@ -801,10 +801,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>104020620</v>
+        <v>104020673</v>
       </c>
       <c r="B3" t="n">
-        <v>89832</v>
+        <v>90319</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -813,25 +813,25 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>1209</v>
+        <v>4769</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Rynkskinn</t>
+          <t>Svavelriska</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Phlebia centrifuga</t>
+          <t>Lactarius scrobiculatus</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>P.Karst.</t>
+          <t>(Scop.:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -841,10 +841,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>548497.5973745297</v>
+        <v>548356.2303483598</v>
       </c>
       <c r="R3" t="n">
-        <v>6984121.559846499</v>
+        <v>6984319.978425851</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -876,7 +876,7 @@
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>11:42</t>
+          <t>11:26</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
@@ -886,7 +886,7 @@
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>11:42</t>
+          <t>11:26</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -922,10 +922,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>104020673</v>
+        <v>104020620</v>
       </c>
       <c r="B4" t="n">
-        <v>90319</v>
+        <v>89832</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -934,25 +934,25 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>4769</v>
+        <v>1209</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Svavelriska</t>
+          <t>Rynkskinn</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Lactarius scrobiculatus</t>
+          <t>Phlebia centrifuga</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Fr.</t>
+          <t>P.Karst.</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -962,10 +962,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>548356.2303483598</v>
+        <v>548497.5973745297</v>
       </c>
       <c r="R4" t="n">
-        <v>6984319.978425851</v>
+        <v>6984121.559846499</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -997,7 +997,7 @@
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>11:26</t>
+          <t>11:42</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
@@ -1007,7 +1007,7 @@
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>11:26</t>
+          <t>11:42</t>
         </is>
       </c>
       <c r="AD4" t="b">

--- a/artfynd/A 11002-2022.xlsx
+++ b/artfynd/A 11002-2022.xlsx
@@ -801,10 +801,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>104020673</v>
+        <v>104020620</v>
       </c>
       <c r="B3" t="n">
-        <v>90319</v>
+        <v>89832</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -813,25 +813,25 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>4769</v>
+        <v>1209</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Svavelriska</t>
+          <t>Rynkskinn</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Lactarius scrobiculatus</t>
+          <t>Phlebia centrifuga</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Fr.</t>
+          <t>P.Karst.</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -841,10 +841,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>548356.2303483598</v>
+        <v>548497.5973745297</v>
       </c>
       <c r="R3" t="n">
-        <v>6984319.978425851</v>
+        <v>6984121.559846499</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -876,7 +876,7 @@
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>11:26</t>
+          <t>11:42</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
@@ -886,7 +886,7 @@
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>11:26</t>
+          <t>11:42</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -922,10 +922,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>104020620</v>
+        <v>104020673</v>
       </c>
       <c r="B4" t="n">
-        <v>89832</v>
+        <v>90319</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -934,25 +934,25 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>1209</v>
+        <v>4769</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Rynkskinn</t>
+          <t>Svavelriska</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Phlebia centrifuga</t>
+          <t>Lactarius scrobiculatus</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>P.Karst.</t>
+          <t>(Scop.:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -962,10 +962,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>548497.5973745297</v>
+        <v>548356.2303483598</v>
       </c>
       <c r="R4" t="n">
-        <v>6984121.559846499</v>
+        <v>6984319.978425851</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -997,7 +997,7 @@
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>11:42</t>
+          <t>11:26</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
@@ -1007,7 +1007,7 @@
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>11:42</t>
+          <t>11:26</t>
         </is>
       </c>
       <c r="AD4" t="b">
